--- a/class_notes/Exponential Smoothing excel 1.xlsx
+++ b/class_notes/Exponential Smoothing excel 1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\GitHub\Time-Series-Analysis\class_notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF90FAB-CA50-4D10-8751-B6FAB96B9876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661CBF25-4145-42D3-A54B-329C5D808E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="5" xr2:uid="{7C3E8A0C-A8DB-4214-A2BD-4287E2A3E2D7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="5" xr2:uid="{7C3E8A0C-A8DB-4214-A2BD-4287E2A3E2D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -184,7 +184,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -374,7 +374,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -403,7 +403,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4609,16 +4609,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>339724</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>130174</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>15874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>349250</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>390526</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>132080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4949,16 +4949,16 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -4966,7 +4966,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B2" s="3">
         <v>0.21001652675223245</v>
       </c>
@@ -4975,7 +4975,7 @@
         <v>0.78998347324776752</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -4998,7 +4998,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -5006,7 +5006,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -5034,7 +5034,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -5062,7 +5062,7 @@
         <v>211.08271464689327</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4</v>
       </c>
@@ -5090,7 +5090,7 @@
         <v>138.52521415761237</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>5</v>
       </c>
@@ -5118,7 +5118,7 @@
         <v>952.46447651863809</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>6</v>
       </c>
@@ -5146,7 +5146,7 @@
         <v>249.04577465051764</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>7</v>
       </c>
@@ -5174,7 +5174,7 @@
         <v>86.044677575172315</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>8</v>
       </c>
@@ -5202,7 +5202,7 @@
         <v>135.97425903944966</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>9</v>
       </c>
@@ -5230,7 +5230,7 @@
         <v>218.25053341689929</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>10</v>
       </c>
@@ -5258,7 +5258,7 @@
         <v>144.83030341484806</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>11</v>
       </c>
@@ -5285,7 +5285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12</v>
       </c>
@@ -5313,12 +5313,12 @@
         <v>211.11111108975535</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E17">
         <f>AVERAGE(E5:E15)</f>
         <v>255.59062950617374</v>
@@ -5332,7 +5332,7 @@
         <v>258.84809677361693</v>
       </c>
     </row>
-    <row r="18" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E18" t="s">
         <v>10</v>
       </c>
@@ -5356,17 +5356,16 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
@@ -5374,7 +5373,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2" s="13">
         <v>1</v>
       </c>
@@ -5383,7 +5382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
@@ -5403,7 +5402,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -5411,7 +5410,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -5434,7 +5433,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -5458,7 +5457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4</v>
       </c>
@@ -5482,7 +5481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5</v>
       </c>
@@ -5506,7 +5505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>6</v>
       </c>
@@ -5530,7 +5529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>7</v>
       </c>
@@ -5554,7 +5553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D12">
         <f>AVERAGE(D6:D11)</f>
         <v>0.66666666666666663</v>
@@ -5568,7 +5567,7 @@
         <v>66.666666666666671</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D13" s="6" t="s">
         <v>18</v>
       </c>
@@ -5592,17 +5591,17 @@
       <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>19</v>
       </c>
@@ -5616,7 +5615,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>1901</v>
       </c>
@@ -5624,7 +5623,7 @@
         <v>238396327</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>1911</v>
       </c>
@@ -5632,7 +5631,7 @@
         <v>252093390</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
         <v>1921</v>
       </c>
@@ -5640,7 +5639,7 @@
         <v>251321213</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>1931</v>
       </c>
@@ -5648,7 +5647,7 @@
         <v>278977238</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>1941</v>
       </c>
@@ -5656,7 +5655,7 @@
         <v>318660580</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>1951</v>
       </c>
@@ -5664,7 +5663,7 @@
         <v>361088090</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>1961</v>
       </c>
@@ -5672,7 +5671,7 @@
         <v>439234771</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>1971</v>
       </c>
@@ -5680,7 +5679,7 @@
         <v>548159652</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>1981</v>
       </c>
@@ -5688,7 +5687,7 @@
         <v>683329097</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>1991</v>
       </c>
@@ -5699,7 +5698,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>2001</v>
       </c>
@@ -5707,7 +5706,7 @@
         <v>1028737436</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>2011</v>
       </c>
@@ -5715,7 +5714,7 @@
         <v>1210854977</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="14">
         <v>2021</v>
       </c>
@@ -5731,7 +5730,7 @@
         <v>1394949112.9668612</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>2031</v>
       </c>
@@ -5747,7 +5746,7 @@
         <v>1579168634.4965057</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>2041</v>
       </c>
@@ -5763,7 +5762,7 @@
         <v>1763390411.8512468</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>2051</v>
       </c>
@@ -5779,7 +5778,7 @@
         <v>1934953092.1423438</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>2061</v>
       </c>
@@ -5795,7 +5794,7 @@
         <v>2120234588.0906336</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>2071</v>
       </c>
@@ -5811,7 +5810,7 @@
         <v>2302553919.796628</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>2081</v>
       </c>
@@ -5827,7 +5826,7 @@
         <v>2484253131.7149348</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>2091</v>
       </c>
@@ -5843,7 +5842,7 @@
         <v>2513439784.4848151</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>3001</v>
       </c>
@@ -5874,15 +5873,15 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
         <v>19</v>
       </c>
@@ -5899,7 +5898,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="27">
         <v>1901</v>
       </c>
@@ -5909,7 +5908,7 @@
       <c r="C2" s="22"/>
       <c r="D2" s="22"/>
     </row>
-    <row r="3" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="27">
         <v>1911</v>
       </c>
@@ -5919,7 +5918,7 @@
       <c r="C3" s="22"/>
       <c r="D3" s="22"/>
     </row>
-    <row r="4" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="29">
         <v>1921</v>
       </c>
@@ -5929,7 +5928,7 @@
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
     </row>
-    <row r="5" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="27">
         <v>1931</v>
       </c>
@@ -5939,7 +5938,7 @@
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
     </row>
-    <row r="6" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="27">
         <v>1941</v>
       </c>
@@ -5949,7 +5948,7 @@
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
     </row>
-    <row r="7" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="27">
         <v>1951</v>
       </c>
@@ -5959,7 +5958,7 @@
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
     </row>
-    <row r="8" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="27">
         <v>1961</v>
       </c>
@@ -5969,7 +5968,7 @@
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
     </row>
-    <row r="9" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="27">
         <v>1971</v>
       </c>
@@ -5979,7 +5978,7 @@
       <c r="C9" s="22"/>
       <c r="D9" s="22"/>
     </row>
-    <row r="10" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="27">
         <v>1981</v>
       </c>
@@ -5989,7 +5988,7 @@
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
     </row>
-    <row r="11" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="27">
         <v>1991</v>
       </c>
@@ -5999,7 +5998,7 @@
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
     </row>
-    <row r="12" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="27">
         <v>2001</v>
       </c>
@@ -6009,7 +6008,7 @@
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
     </row>
-    <row r="13" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="27">
         <v>2011</v>
       </c>
@@ -6019,7 +6018,7 @@
       <c r="C13" s="22"/>
       <c r="D13" s="22"/>
     </row>
-    <row r="14" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="29">
         <v>2021</v>
       </c>
@@ -6033,7 +6032,7 @@
         <v>1394949112.9668612</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="27">
         <v>2031</v>
       </c>
@@ -6047,7 +6046,7 @@
         <v>1579169741.8733687</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="27">
         <v>2041</v>
       </c>
@@ -6061,7 +6060,7 @@
         <v>1756719102.7279119</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="27">
         <v>2051</v>
       </c>
@@ -6075,7 +6074,7 @@
         <v>1938675172.7800949</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="27">
         <v>2061</v>
       </c>
@@ -6089,7 +6088,7 @@
         <v>2120631252.4206727</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="27">
         <v>2071</v>
       </c>
@@ -6103,7 +6102,7 @@
         <v>2302587499.0475569</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="27">
         <v>2081</v>
       </c>
@@ -6117,7 +6116,7 @@
         <v>2325915887.0822973</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="27">
         <v>2091</v>
       </c>
@@ -6131,7 +6130,7 @@
         <v>2547996419.1727777</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="27">
         <v>3001</v>
       </c>
@@ -6159,15 +6158,15 @@
       <selection activeCell="A3" sqref="A3:C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="34"/>
       <c r="B1" s="34"/>
       <c r="C1" s="35" t="s">
@@ -6177,7 +6176,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="34"/>
       <c r="B2" s="34"/>
       <c r="C2" s="35">
@@ -6188,7 +6187,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="36" t="s">
         <v>3</v>
       </c>
@@ -6200,7 +6199,7 @@
       </c>
       <c r="D3" s="34"/>
     </row>
-    <row r="4" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="34">
         <v>1</v>
       </c>
@@ -6213,7 +6212,7 @@
       </c>
       <c r="D4" s="34"/>
     </row>
-    <row r="5" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="34">
         <v>2</v>
       </c>
@@ -6226,7 +6225,7 @@
       </c>
       <c r="D5" s="34"/>
     </row>
-    <row r="6" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="34">
         <v>3</v>
       </c>
@@ -6239,7 +6238,7 @@
       </c>
       <c r="D6" s="34"/>
     </row>
-    <row r="7" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="34">
         <v>4</v>
       </c>
@@ -6252,7 +6251,7 @@
       </c>
       <c r="D7" s="34"/>
     </row>
-    <row r="8" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="34">
         <v>5</v>
       </c>
@@ -6265,7 +6264,7 @@
       </c>
       <c r="D8" s="34"/>
     </row>
-    <row r="9" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="34">
         <v>6</v>
       </c>
@@ -6278,7 +6277,7 @@
       </c>
       <c r="D9" s="34"/>
     </row>
-    <row r="10" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="34">
         <v>7</v>
       </c>
@@ -6291,7 +6290,7 @@
       </c>
       <c r="D10" s="34"/>
     </row>
-    <row r="11" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="34">
         <v>8</v>
       </c>
@@ -6304,7 +6303,7 @@
       </c>
       <c r="D11" s="34"/>
     </row>
-    <row r="12" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="34">
         <v>9</v>
       </c>
@@ -6317,7 +6316,7 @@
       </c>
       <c r="D12" s="34"/>
     </row>
-    <row r="13" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="34">
         <v>10</v>
       </c>
@@ -6330,7 +6329,7 @@
       </c>
       <c r="D13" s="34"/>
     </row>
-    <row r="14" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="34">
         <v>11</v>
       </c>
@@ -6343,7 +6342,7 @@
       </c>
       <c r="D14" s="34"/>
     </row>
-    <row r="15" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="34">
         <v>12</v>
       </c>
@@ -6368,18 +6367,18 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="Q43" sqref="Q43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C1" s="19" t="s">
         <v>1</v>
       </c>
@@ -6387,7 +6386,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C2" s="19">
         <v>0.8</v>
       </c>
@@ -6396,7 +6395,7 @@
         <v>0.19999999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -6407,7 +6406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -6415,7 +6414,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -6427,7 +6426,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -6439,7 +6438,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4</v>
       </c>
@@ -6451,7 +6450,7 @@
         <v>475.2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>5</v>
       </c>
@@ -6463,7 +6462,7 @@
         <v>263.03999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>6</v>
       </c>
@@ -6475,7 +6474,7 @@
         <v>356.608</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>7</v>
       </c>
@@ -6487,7 +6486,7 @@
         <v>167.32159999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>8</v>
       </c>
@@ -6499,7 +6498,7 @@
         <v>729.46432000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>9</v>
       </c>
@@ -6511,7 +6510,7 @@
         <v>345.89286399999997</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>10</v>
       </c>
@@ -6523,7 +6522,7 @@
         <v>949.17857279999998</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>11</v>
       </c>
@@ -6535,7 +6534,7 @@
         <v>589.83571455999993</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>12</v>
       </c>
